--- a/data/param_tuning/Dataset5/cnn_kernels.xlsx
+++ b/data/param_tuning/Dataset5/cnn_kernels.xlsx
@@ -456,22 +456,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.7565</t>
+          <t>0.7875</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.593</t>
+          <t>0.5735</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.5134</t>
+          <t>0.5052</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.5206</t>
+          <t>0.503</t>
         </is>
       </c>
     </row>
@@ -483,22 +483,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.783</t>
+          <t>0.7845</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.5456</t>
+          <t>0.487</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.5368</t>
+          <t>0.5059</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.528</t>
+          <t>0.4717</t>
         </is>
       </c>
     </row>
@@ -510,22 +510,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.8148</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.5694</t>
+          <t>0.4968</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.5045</t>
+          <t>0.5113</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.5023</t>
+          <t>0.4889</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.8177</t>
+          <t>0.8258</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.5779</t>
+          <t>0.5625</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.4969</t>
+          <t>0.5305</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.5101</t>
+          <t>0.5301</t>
         </is>
       </c>
     </row>
@@ -564,22 +564,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.8074</t>
+          <t>0.8162</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.5671</t>
+          <t>0.5096</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.5532</t>
+          <t>0.509</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.5476</t>
+          <t>0.4979</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.8125</t>
+          <t>0.783</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.6156</t>
+          <t>0.5248</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.5342</t>
+          <t>0.5536</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.532</t>
+          <t>0.5156</t>
         </is>
       </c>
     </row>
